--- a/data/georgia_census/mcxeta-mtianeti/dusheti/healthcare_staff.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/dusheti/healthcare_staff.xlsx
@@ -1364,13 +1364,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F41667A-1222-4C4A-B298-5C988D80E774}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D886B23-3B98-4D14-86D2-958ED3910EA0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E656B58-C946-498D-8D7B-474A525C3166}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{344F3588-4577-45D6-BE5C-D4AE36C816F0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF42491-8027-4DEB-B83D-6998F73BF46D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7D5B253-0451-475B-9DF5-6226D2912869}"/>
 </file>